--- a/src/main/resources/template/travelSumTemplate.xlsx
+++ b/src/main/resources/template/travelSumTemplate.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>{yearName}差旅费累计汇总表</t>
   </si>
@@ -58,6 +58,12 @@
     <t>报销动因</t>
   </si>
   <si>
+    <t>科目</t>
+  </si>
+  <si>
+    <t>划拨金额</t>
+  </si>
+  <si>
     <t>备注</t>
   </si>
   <si>
@@ -140,6 +146,12 @@
   </si>
   <si>
     <t>{.agentName}</t>
+  </si>
+  <si>
+    <t>{.subject}</t>
+  </si>
+  <si>
+    <t>{.allocatedmoney}</t>
   </si>
   <si>
     <t>{.remark}</t>
@@ -189,35 +201,95 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color indexed="54"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="23"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="53"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="54"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="16"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color indexed="54"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="53"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -230,73 +302,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="53"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="53"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color indexed="54"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="16"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color indexed="54"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="20"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color indexed="19"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -310,103 +322,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="48"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="53"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="24"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="51"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="42"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="51"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="45"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="27"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="54"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="48"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="44"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="55"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="53"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="24"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -514,24 +526,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="44"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="48"/>
       </bottom>
       <diagonal/>
     </border>
@@ -551,11 +545,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color indexed="63"/>
+      </left>
+      <right style="double">
+        <color indexed="63"/>
+      </right>
+      <top style="double">
+        <color indexed="63"/>
+      </top>
       <bottom style="double">
-        <color indexed="52"/>
+        <color indexed="63"/>
       </bottom>
       <diagonal/>
     </border>
@@ -575,6 +575,33 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="52"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="48"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="44"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="22"/>
       </left>
@@ -600,21 +627,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color indexed="63"/>
-      </left>
-      <right style="double">
-        <color indexed="63"/>
-      </right>
-      <top style="double">
-        <color indexed="63"/>
-      </top>
-      <bottom style="double">
-        <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -626,7 +638,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -635,133 +647,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1142,10 +1154,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:V7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6"/>
@@ -1157,8 +1169,11 @@
     <col min="9" max="9" width="9.625" customWidth="1"/>
     <col min="10" max="10" width="12" customWidth="1"/>
     <col min="11" max="11" width="11.75" customWidth="1"/>
-    <col min="12" max="12" width="12.625" customWidth="1"/>
-    <col min="13" max="21" width="8" customWidth="1"/>
+    <col min="12" max="13" width="12.625" customWidth="1"/>
+    <col min="14" max="15" width="8" customWidth="1"/>
+    <col min="16" max="16" width="12.625" customWidth="1"/>
+    <col min="17" max="20" width="8" customWidth="1"/>
+    <col min="21" max="21" width="9.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="28.5" customHeight="1" spans="1:20">
@@ -1211,7 +1226,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" ht="17.25" customHeight="1" spans="1:20">
+    <row r="3" ht="17.25" customHeight="1" spans="1:22">
       <c r="A3" s="1"/>
       <c r="B3" s="5" t="s">
         <v>3</v>
@@ -1256,8 +1271,14 @@
       <c r="T3" s="12" t="s">
         <v>14</v>
       </c>
+      <c r="U3" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="V3" s="12" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="4" ht="17.25" customHeight="1" spans="1:20">
+    <row r="4" ht="17.25" customHeight="1" spans="1:22">
       <c r="A4" s="1"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -1268,30 +1289,32 @@
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N4" s="13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O4" s="14"/>
       <c r="P4" s="15"/>
       <c r="Q4" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="R4" s="6"/>
       <c r="S4" s="6"/>
       <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
     </row>
-    <row r="5" ht="17.25" customHeight="1" spans="1:20">
+    <row r="5" ht="17.25" customHeight="1" spans="1:22">
       <c r="A5" s="1"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -1306,80 +1329,88 @@
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
       <c r="N5" s="16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="O5" s="16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="P5" s="16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="Q5" s="7"/>
       <c r="R5" s="7"/>
       <c r="S5" s="7"/>
       <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12"/>
     </row>
-    <row r="6" ht="23.25" customHeight="1" spans="1:20">
+    <row r="6" ht="23.25" customHeight="1" spans="1:22">
       <c r="A6" s="1"/>
       <c r="B6" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Q6" s="9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="R6" s="9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="S6" s="9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="T6" s="9" t="s">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="U6" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="V6" s="9" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="7" ht="23.25" customHeight="1" spans="1:20">
+    <row r="7" ht="23.25" customHeight="1" spans="1:22">
       <c r="A7" s="1"/>
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
@@ -1400,9 +1431,11 @@
       <c r="R7" s="9"/>
       <c r="S7" s="9"/>
       <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="22">
     <mergeCell ref="B1:T1"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="J3:Q3"/>
@@ -1423,6 +1456,8 @@
     <mergeCell ref="R3:R5"/>
     <mergeCell ref="S3:S5"/>
     <mergeCell ref="T3:T5"/>
+    <mergeCell ref="U3:U5"/>
+    <mergeCell ref="V3:V5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
